--- a/xlsx/country_comparison/ncs_gcs_ics_all_control_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_control_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -452,13 +455,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>66.4226512802836</v>
+        <v>67.9579005629342</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -488,18 +494,21 @@
         <v>67.9794880829724</v>
       </c>
       <c r="L2" t="n">
+        <v>74.5408968197829</v>
+      </c>
+      <c r="M2" t="n">
         <v>88.0240645828152</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>64.0316340570691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>56.9461678435988</v>
+        <v>55.2696634386495</v>
       </c>
       <c r="C3" t="n">
         <v>61.0914766632881</v>
@@ -529,18 +538,21 @@
         <v>56.8487902138407</v>
       </c>
       <c r="L3" t="n">
+        <v>48.2451141436668</v>
+      </c>
+      <c r="M3" t="n">
         <v>84.6671870687128</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>48.604165854654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>41.7372453377052</v>
+        <v>40.6177237377237</v>
       </c>
       <c r="C4" t="n">
         <v>42.2297683433051</v>
@@ -570,15 +582,18 @@
         <v>36.9068079681403</v>
       </c>
       <c r="L4" t="n">
+        <v>37.2813549198678</v>
+      </c>
+      <c r="M4" t="n">
         <v>54.6783899296328</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>41.687361942331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>34.7728459875887</v>
@@ -610,19 +625,20 @@
       <c r="K5" t="n">
         <v>30.4387261840999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5"/>
+      <c r="M5" t="n">
         <v>45.8572414678735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>42.9925088066507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>65.7757973018818</v>
+        <v>64.6020160692236</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -652,18 +668,21 @@
         <v>66.5884503407556</v>
       </c>
       <c r="L6" t="n">
+        <v>56.6004208236377</v>
+      </c>
+      <c r="M6" t="n">
         <v>86.9712358856764</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>60.3307739305438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.6120341228827</v>
+        <v>67.3589957678886</v>
       </c>
       <c r="C7" t="n">
         <v>73.1501666372061</v>
@@ -693,18 +712,21 @@
         <v>67.2922348590199</v>
       </c>
       <c r="L7" t="n">
+        <v>64.9824905118065</v>
+      </c>
+      <c r="M7" t="n">
         <v>86.513074970901</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>58.9366541153335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>69.9010110708032</v>
+        <v>68.5061536753791</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -734,18 +756,21 @@
         <v>70.796250180037</v>
       </c>
       <c r="L8" t="n">
+        <v>60.7672609910995</v>
+      </c>
+      <c r="M8" t="n">
         <v>90.518282762834</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>63.6481822477839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>63.2380148473265</v>
+        <v>61.9858273857402</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -775,9 +800,12 @@
         <v>63.3776677259688</v>
       </c>
       <c r="L9" t="n">
+        <v>55.4489061890469</v>
+      </c>
+      <c r="M9" t="n">
         <v>87.5032786022504</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>56.0366948341141</v>
       </c>
     </row>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_control_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_control_mean.xlsx
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>67.9579005629342</v>
+        <v>67.8679804978435</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -491,16 +491,16 @@
         <v>57.7523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>67.9794880829724</v>
+        <v>67.987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>74.5408968197829</v>
+        <v>74.0846263450239</v>
       </c>
       <c r="M2" t="n">
         <v>88.0240645828152</v>
       </c>
       <c r="N2" t="n">
-        <v>64.0316340570691</v>
+        <v>64.0735542026883</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>55.2696634386495</v>
+        <v>55.2953815419129</v>
       </c>
       <c r="C3" t="n">
         <v>61.0914766632881</v>
@@ -535,16 +535,16 @@
         <v>62.3284705512702</v>
       </c>
       <c r="K3" t="n">
-        <v>56.8487902138407</v>
+        <v>56.8474042011213</v>
       </c>
       <c r="L3" t="n">
-        <v>48.2451141436668</v>
+        <v>48.4302557813727</v>
       </c>
       <c r="M3" t="n">
         <v>84.6671870687128</v>
       </c>
       <c r="N3" t="n">
-        <v>48.604165854654</v>
+        <v>48.666425997025</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>40.6177237377237</v>
+        <v>40.5493307668479</v>
       </c>
       <c r="C4" t="n">
         <v>42.2297683433051</v>
@@ -579,16 +579,16 @@
         <v>45.7593973431738</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9068079681403</v>
+        <v>36.9055302021312</v>
       </c>
       <c r="L4" t="n">
-        <v>37.2813549198678</v>
+        <v>36.9722122759865</v>
       </c>
       <c r="M4" t="n">
         <v>54.6783899296328</v>
       </c>
       <c r="N4" t="n">
-        <v>41.687361942331</v>
+        <v>41.6894250824717</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>34.7728459875887</v>
+        <v>34.7872415482579</v>
       </c>
       <c r="C5" t="n">
         <v>28.1800572752332</v>
@@ -623,14 +623,14 @@
         <v>25.624783349908</v>
       </c>
       <c r="K5" t="n">
-        <v>30.4387261840999</v>
+        <v>30.4357942185907</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
         <v>45.8572414678735</v>
       </c>
       <c r="N5" t="n">
-        <v>42.9925088066507</v>
+        <v>43.0029533260978</v>
       </c>
     </row>
     <row r="6">
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>64.6020160692236</v>
+        <v>64.7240480131028</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -665,16 +665,16 @@
         <v>61.691572049826</v>
       </c>
       <c r="K6" t="n">
-        <v>66.5884503407556</v>
+        <v>66.5933688883394</v>
       </c>
       <c r="L6" t="n">
-        <v>56.6004208236377</v>
+        <v>57.2690723237937</v>
       </c>
       <c r="M6" t="n">
         <v>86.9712358856764</v>
       </c>
       <c r="N6" t="n">
-        <v>60.3307739305438</v>
+        <v>60.3471262597791</v>
       </c>
     </row>
     <row r="7">
@@ -682,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.3589957678886</v>
+        <v>67.2054760884641</v>
       </c>
       <c r="C7" t="n">
-        <v>73.1501666372061</v>
+        <v>73.150166637206</v>
       </c>
       <c r="D7" t="n">
         <v>75.9578759812179</v>
@@ -709,16 +709,16 @@
         <v>63.7890555129928</v>
       </c>
       <c r="K7" t="n">
-        <v>67.2922348590199</v>
+        <v>67.292535125419</v>
       </c>
       <c r="L7" t="n">
-        <v>64.9824905118065</v>
+        <v>63.9033952437169</v>
       </c>
       <c r="M7" t="n">
         <v>86.513074970901</v>
       </c>
       <c r="N7" t="n">
-        <v>58.9366541153335</v>
+        <v>58.9468339412676</v>
       </c>
     </row>
     <row r="8">
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>68.5061536753791</v>
+        <v>68.518253119246</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -753,16 +753,16 @@
         <v>74.3491876231661</v>
       </c>
       <c r="K8" t="n">
-        <v>70.796250180037</v>
+        <v>70.8149579691965</v>
       </c>
       <c r="L8" t="n">
-        <v>60.7672609910995</v>
+        <v>60.4866837966034</v>
       </c>
       <c r="M8" t="n">
         <v>90.518282762834</v>
       </c>
       <c r="N8" t="n">
-        <v>63.6481822477839</v>
+        <v>63.6828257869627</v>
       </c>
     </row>
     <row r="9">
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>61.9858273857402</v>
+        <v>61.895417279981</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -797,16 +797,16 @@
         <v>64.7145596361043</v>
       </c>
       <c r="K9" t="n">
-        <v>63.3776677259688</v>
+        <v>63.3861854984241</v>
       </c>
       <c r="L9" t="n">
-        <v>55.4489061890469</v>
+        <v>54.11746546684</v>
       </c>
       <c r="M9" t="n">
         <v>87.5032786022504</v>
       </c>
       <c r="N9" t="n">
-        <v>56.0366948341141</v>
+        <v>56.0767240057917</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/ncs_gcs_ics_all_control_mean.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_control_mean.xlsx
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8679804978435</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -494,7 +494,7 @@
         <v>67.987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>74.0846263450239</v>
+        <v>73.9047667329172</v>
       </c>
       <c r="M2" t="n">
         <v>88.0240645828152</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>55.2953815419129</v>
+        <v>55.3352948193206</v>
       </c>
       <c r="C3" t="n">
         <v>61.0914766632881</v>
@@ -538,7 +538,7 @@
         <v>56.8474042011213</v>
       </c>
       <c r="L3" t="n">
-        <v>48.4302557813727</v>
+        <v>48.6313846276599</v>
       </c>
       <c r="M3" t="n">
         <v>84.6671870687128</v>
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>40.5493307668479</v>
+        <v>40.563158268296</v>
       </c>
       <c r="C4" t="n">
         <v>42.2297683433051</v>
@@ -582,7 +582,7 @@
         <v>36.9055302021312</v>
       </c>
       <c r="L4" t="n">
-        <v>36.9722122759865</v>
+        <v>36.9618773883661</v>
       </c>
       <c r="M4" t="n">
         <v>54.6783899296328</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>64.7240480131028</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -682,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.2054760884641</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C7" t="n">
-        <v>73.150166637206</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D7" t="n">
         <v>75.9578759812179</v>
@@ -712,7 +712,7 @@
         <v>67.292535125419</v>
       </c>
       <c r="L7" t="n">
-        <v>63.9033952437169</v>
+        <v>63.442019211072</v>
       </c>
       <c r="M7" t="n">
         <v>86.513074970901</v>
@@ -726,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>68.518253119246</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -756,7 +756,7 @@
         <v>70.8149579691965</v>
       </c>
       <c r="L8" t="n">
-        <v>60.4866837966034</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="M8" t="n">
         <v>90.518282762834</v>
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>61.895417279981</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -800,7 +800,7 @@
         <v>63.3861854984241</v>
       </c>
       <c r="L9" t="n">
-        <v>54.11746546684</v>
+        <v>54.0183622108344</v>
       </c>
       <c r="M9" t="n">
         <v>87.5032786022504</v>
